--- a/arquivos/dados/clientes.xlsx
+++ b/arquivos/dados/clientes.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,127 +437,112 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>Nome</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Nome</t>
+          <t>Idade</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Idade</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
           <t>Cidade</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>Ana</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="C2" t="n">
         <v>23</v>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>São Paulo</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>Carlos</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="C3" t="n">
         <v>30</v>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>Lucas</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="C4" t="n">
         <v>25</v>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>Fernanda</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="C5" t="n">
         <v>28</v>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Porto Alegre</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
+      <c r="A6" t="n">
         <v>5</v>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>Mariana</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="C6" t="n">
         <v>22</v>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Salvador</t>
         </is>
@@ -574,7 +559,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -583,127 +568,112 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>Nome</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Nome</t>
+          <t>Idade</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Idade</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
           <t>Cidade</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
+      <c r="A2" t="n">
         <v>6</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>Jõao</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="C2" t="n">
         <v>27</v>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Fortaleza</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
+      <c r="A3" t="n">
         <v>7</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>Paula</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="C3" t="n">
         <v>35</v>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Belo Horizonte</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
+      <c r="A4" t="n">
         <v>8</v>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>Pedro</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="C4" t="n">
         <v>32</v>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Recife</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
+      <c r="A5" t="n">
         <v>9</v>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>Amanda</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="C5" t="n">
         <v>22</v>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Brasília</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
+      <c r="A6" t="n">
         <v>10</v>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>Rafael</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="C6" t="n">
         <v>29</v>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Manaus</t>
         </is>
@@ -720,7 +690,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -729,127 +699,112 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>Nome</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Nome</t>
+          <t>Idade</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Idade</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
           <t>Cidade</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
+      <c r="A2" t="n">
         <v>11</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>Juliana</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="C2" t="n">
         <v>26</v>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Natal</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
+      <c r="A3" t="n">
         <v>12</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>Sérgio</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="C3" t="n">
         <v>33</v>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Cuiabá</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
+      <c r="A4" t="n">
         <v>13</v>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>Gabriela</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="C4" t="n">
         <v>28</v>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Vitória</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
+      <c r="A5" t="n">
         <v>14</v>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>Eduardo</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="C5" t="n">
         <v>31</v>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Maceió</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
+      <c r="A6" t="n">
         <v>15</v>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>Carla</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="C6" t="n">
         <v>24</v>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Jõao Pessoa</t>
         </is>
@@ -866,7 +821,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -875,127 +830,112 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>Nome</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Nome</t>
+          <t>Idade</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Idade</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
           <t>Cidade</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
+      <c r="A2" t="n">
         <v>16</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>Ricardo</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="C2" t="n">
         <v>29</v>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Florianópolis</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
+      <c r="A3" t="n">
         <v>17</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>Tânia</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="C3" t="n">
         <v>26</v>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Gôiania</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
+      <c r="A4" t="n">
         <v>18</v>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>Elena</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="C4" t="n">
         <v>34</v>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Aracaju</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
+      <c r="A5" t="n">
         <v>19</v>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>Marcos</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="C5" t="n">
         <v>27</v>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Campo Grande</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
+      <c r="A6" t="n">
         <v>20</v>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>Beatriz</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="C6" t="n">
         <v>25</v>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Belém</t>
         </is>
